--- a/ky/downloads/data-excel/6.4.2.1.xlsx
+++ b/ky/downloads/data-excel/6.4.2.1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Всего </t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t xml:space="preserve">6.4.2.1 Общий объем забора пресной воды </t>
+  </si>
+  <si>
+    <t>Көрсөткүчтөрдүн аталыштары</t>
+  </si>
+  <si>
+    <t>Наименование показателей</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
@@ -794,11 +803,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -806,7 +813,7 @@
     <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1">
+    <row r="1" spans="1:13" ht="27" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
@@ -817,7 +824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -828,14 +835,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" thickBot="1">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="12.75" thickBot="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D4" s="4">
         <v>2014</v>
       </c>
@@ -863,8 +876,11 @@
       <c r="L4" s="23">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -901,8 +917,11 @@
       <c r="L5" s="24">
         <v>8741.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M5" s="24">
+        <v>8872.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>33</v>
       </c>
@@ -921,8 +940,9 @@
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
@@ -961,8 +981,11 @@
       <c r="L7" s="25">
         <v>8483.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1">
+      <c r="M7" s="25">
+        <v>8601.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -999,8 +1022,11 @@
       <c r="L8" s="25">
         <v>258.39999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>38</v>
       </c>
@@ -1019,8 +1045,9 @@
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
@@ -1057,8 +1084,11 @@
       <c r="L10" s="27">
         <v>683.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="27">
+        <v>723.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>40</v>
       </c>
@@ -1095,8 +1125,11 @@
       <c r="L11" s="27">
         <v>1101.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="27">
+        <v>1205.5999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>41</v>
       </c>
@@ -1133,8 +1166,11 @@
       <c r="L12" s="27">
         <v>714.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="27">
+        <v>779.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>42</v>
       </c>
@@ -1171,8 +1207,11 @@
       <c r="L13" s="28">
         <v>757.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="28">
+        <v>829.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>43</v>
       </c>
@@ -1209,8 +1248,11 @@
       <c r="L14" s="28">
         <v>1327.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="28">
+        <v>1314.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>44</v>
       </c>
@@ -1247,8 +1289,11 @@
       <c r="L15" s="28">
         <v>1023.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="28">
+        <v>1034.5999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
@@ -1285,8 +1330,11 @@
       <c r="L16" s="28">
         <v>2929.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="28">
+        <v>2762.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>46</v>
       </c>
@@ -1323,8 +1371,11 @@
       <c r="L17" s="28">
         <v>148.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" thickBot="1">
+      <c r="M17" s="28">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="15" t="s">
         <v>47</v>
       </c>
@@ -1360,6 +1411,9 @@
       </c>
       <c r="L18" s="29">
         <v>54</v>
+      </c>
+      <c r="M18" s="29">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
